--- a/DbLayouts/L6-共同作業/CdAcCode.xlsx
+++ b/DbLayouts/L6-共同作業/CdAcCode.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB197B1D-B010-452B-92A8-D0C09194DE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -315,12 +316,24 @@
     <t>舊科目代號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>findAcCodeOld</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcNoCodeOld &gt;= ,AND AcNoCodeOld &lt;= ,AND AcSubCode &gt;= ,AND AcSubCode &lt;= ,AND AcDtlCode &gt;= ,AND AcDtlCode &lt;= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcNoCodeOld asc,AcSubCode asc,AcDtlCode asc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -607,6 +620,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,27 +646,12 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_CopyBook" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_CopyBook" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -729,6 +742,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -764,6 +794,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -939,14 +986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="21" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="21" bestFit="1" customWidth="1"/>
@@ -957,11 +1004,11 @@
     <col min="8" max="16384" width="21.44140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" ht="38.4" customHeight="1">
+      <c r="A1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="8" t="s">
         <v>24</v>
       </c>
@@ -972,9 +1019,9 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="13" t="s">
         <v>65</v>
       </c>
@@ -985,11 +1032,11 @@
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="34"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="17" t="s">
         <v>68</v>
       </c>
@@ -1000,22 +1047,22 @@
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="33"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18"/>
       <c r="E4" s="15"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="17" t="s">
         <v>69</v>
       </c>
@@ -1024,29 +1071,29 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="8"/>
       <c r="D6" s="18"/>
       <c r="E6" s="15"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="8"/>
       <c r="D7" s="18"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="20" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>0</v>
       </c>
@@ -1069,7 +1116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="21">
         <v>1</v>
       </c>
@@ -1079,16 +1126,16 @@
       <c r="C9" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="33">
         <v>11</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="21">
         <v>2</v>
       </c>
@@ -1107,7 +1154,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="21">
         <v>3</v>
       </c>
@@ -1126,7 +1173,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="21">
         <v>4</v>
       </c>
@@ -1145,7 +1192,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="21">
         <v>5</v>
       </c>
@@ -1164,7 +1211,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="21">
         <v>6</v>
       </c>
@@ -1183,7 +1230,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="32.4">
       <c r="A15" s="21">
         <v>7</v>
       </c>
@@ -1204,7 +1251,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="48.6">
       <c r="A16" s="21">
         <v>8</v>
       </c>
@@ -1225,7 +1272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="32.4">
       <c r="A17" s="21">
         <v>9</v>
       </c>
@@ -1246,7 +1293,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="36.450000000000003" customHeight="1">
       <c r="A18" s="21">
         <v>10</v>
       </c>
@@ -1267,7 +1314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="30" customHeight="1">
       <c r="A19" s="21">
         <v>11</v>
       </c>
@@ -1288,7 +1335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="36" customHeight="1">
       <c r="A20" s="21">
         <v>12</v>
       </c>
@@ -1309,7 +1356,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="25.05" customHeight="1">
       <c r="A21" s="21">
         <v>13</v>
       </c>
@@ -1330,26 +1377,26 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="21">
         <v>14</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="33">
         <v>8</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="21">
         <v>15</v>
       </c>
@@ -1366,7 +1413,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="21">
         <v>16</v>
       </c>
@@ -1385,7 +1432,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="21">
         <v>17</v>
       </c>
@@ -1400,7 +1447,7 @@
       </c>
       <c r="E25" s="28"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="21">
         <v>18</v>
       </c>
@@ -1434,23 +1481,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="123.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.4" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -1469,7 +1516,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -1478,6 +1525,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
